--- a/Data/switch_data.xlsx
+++ b/Data/switch_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,16 +479,26 @@
           <t>Colors</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TransparentLevel</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ColorListLength</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ajazz Diced Fruit Blueberry</t>
+          <t>Akko CS Snow Blue Grey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ajazz</t>
+          <t>Akko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,39 +508,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48g</t>
+          <t>43g</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.0mm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>3.0mm</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>switch_images\ajazz-diced-fruit-blueberry.jpg</t>
+          <t>switch_images\akko-cs-snow-blue-grey.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['#4352ae', '#394aa0', '#545455']</t>
+          <t>['#6aafca', '#a2b0b3']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Akko CS Snow Blue Grey</t>
+          <t>Akko Fairy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,22 +560,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Silent Linear</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.0mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.0mm</t>
+          <t>3.3mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -565,19 +585,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>switch_images\akko-cs-snow-blue-grey.jpg</t>
+          <t>switch_images\akko-fairy.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['#6aafca', '#dfeaf1', '#a2b0b3']</t>
+          <t>['#adacd6', '#f5dbe7', '#a595b9']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Akko Fairy</t>
+          <t>Akko Penguin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,7 +617,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Silent Linear</t>
+          <t>Silent Tactile</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,19 +642,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>switch_images\akko-fairy.jpg</t>
+          <t>switch_images\akko-penguin.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['#adacd6', '#f5dbe7', '#a595b9']</t>
+          <t>['#2e2e2f', '#908e91', '#977229']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Akko Penguin</t>
+          <t>Akko POM Brown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -634,44 +674,54 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Silent Tactile</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.3mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>switch_images\akko-penguin.jpg</t>
+          <t>switch_images\akko-pom-brown.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['#2e2e2f', '#908e91', '#977229']</t>
+          <t>['#1f1003']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Akko POM Brown</t>
+          <t>Akko POM Pink</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -681,12 +731,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -706,19 +756,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>switch_images\akko-pom-brown.jpg</t>
+          <t>switch_images\akko-pom-pink.jpg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['#1f1003', '#705340', '#281003']</t>
+          <t>['#e7c7c1']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Akko POM Pink</t>
+          <t>Akko V3 Cream Black Pro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -733,39 +793,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.9mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.3mm</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>switch_images\akko-pom-pink.jpg</t>
+          <t>switch_images\akko-v3-cream-black-pro.jpg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['#e7c7c1', '#eed8d4', '#d7b8b8']</t>
+          <t>['#4a4a4a']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Akko V3 Cream Black Pro</t>
+          <t>Akko V3 Cream Blue Pro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -775,17 +845,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>2.2mm</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -800,19 +870,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>switch_images\akko-v3-cream-black-pro.jpg</t>
+          <t>switch_images\akko-v3-cream-blue-pro.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['#4a4a4a', '#484848', '#353533']</t>
+          <t>['#a4cedc', '#628aa5']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Akko V3 Cream Blue Pro</t>
+          <t>Akko V3 Cream Yellow Pro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -822,17 +902,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.2mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -847,19 +927,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>switch_images\akko-v3-cream-blue-pro.jpg</t>
+          <t>switch_images\akko-v3-cream-yellow-pro.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['#a4cedc', '#83a2b2', '#628aa5']</t>
+          <t>['#d8d46d', '#a59c44']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Akko V3 Cream Yellow Pro</t>
+          <t>Akko V3 Crystal Pro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -874,7 +964,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -884,29 +974,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.3mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>switch_images\akko-v3-cream-yellow-pro.jpg</t>
+          <t>switch_images\akko-v3-crystal-pro.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['#d8d46d', '#d2c898', '#a59c44']</t>
+          <t>['#cfcdca']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Akko V3 Crystal Pro</t>
+          <t>Akko V3 Piano Pro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,34 +1026,44 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>switch_images\akko-v3-crystal-pro.jpg</t>
+          <t>switch_images\akko-v3-piano-pro.jpg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['#cfcdca', '#cfcdca', '#cfcdca']</t>
+          <t>['#131313', '#ececec', '#0d0d0d']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Akko V3 Piano Pro</t>
+          <t>Akko V3 Silver Pro</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -968,17 +1078,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.9mm</t>
+          <t>1.0mm</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>3.3mm</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -988,24 +1098,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>switch_images\akko-v3-piano-pro.jpg</t>
+          <t>switch_images\akko-v3-silver-pro.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['#131313', '#ececec', '#0d0d0d']</t>
+          <t>['#5a5e5f', '#505153']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Akko V3 Silver Pro</t>
+          <t>CÂ³Equalz x TKC Banana Split</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Akko</t>
+          <t>CÂ³Equalz</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1015,17 +1135,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.0mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.3mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1035,19 +1155,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>switch_images\akko-v3-silver-pro.jpg</t>
+          <t>switch_images\c3equalz-banana-split.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['#5a5e5f', '#8d8d8f', '#505153']</t>
+          <t>['#8169ab', '#c98cab', '#cad46d']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CÂ³Equalz x TKC Banana Split</t>
+          <t>CÂ³Equalz x TKC Dragon Fruit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1057,12 +1187,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>63.5g</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1082,19 +1212,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>switch_images\c3equalz-banana-split.jpg</t>
+          <t>switch_images\c3equalz-dragon-fruit.jpg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['#8169ab', '#c98cab', '#cad46d']</t>
+          <t>['#6f092e']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CÂ³Equalz x TKC Dragon Fruit</t>
+          <t>CÂ³Equalz x TKC Kiwi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1109,7 +1249,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>63.5g</t>
+          <t>43g</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1129,19 +1269,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>switch_images\c3equalz-dragon-fruit.jpg</t>
+          <t>switch_images\c3equalz-kiwi.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['#6f092e', '#aa446a', '#b4b1ad']</t>
+          <t>['#38873b']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CÂ³Equalz x TKC Kiwi</t>
+          <t>CÂ³Equalz x TKC Tangerine Dark Green</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1151,12 +1301,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43g</t>
+          <t>67g</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1176,19 +1326,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>switch_images\c3equalz-kiwi.jpg</t>
+          <t>switch_images\c3equalz-tangerine-dark-green.jpg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['#38873b', '#217238', '#243a46']</t>
+          <t>['#d4422d']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CÂ³Equalz x TKC Tangerine Dark Green</t>
+          <t>CÂ³Equalz x TKC Tangerine Light Green</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1203,7 +1363,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>67g</t>
+          <t>62g</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1223,24 +1383,34 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>switch_images\c3equalz-tangerine-dark-green.jpg</t>
+          <t>switch_images\c3equalz-tangerine-light-green.jpg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['#d4422d', '#d4422d', '#37745e']</t>
+          <t>['#ca463c', '#4b946b']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CÂ³Equalz x TKC Tangerine Light Green</t>
+          <t>Cherry MX Black</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CÂ³Equalz</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1250,7 +1420,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>62g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1265,24 +1435,34 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate/PCB</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>switch_images\c3equalz-tangerine-light-green.jpg</t>
+          <t>switch_images\cherry-mx-black.jpg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['#ca463c', '#ca463c', '#4b946b']</t>
+          <t>['#3a3a3f']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cherry MX Black</t>
+          <t>Cherry MX Blue</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1292,7 +1472,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Clicky</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1302,7 +1482,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>2.2mm</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1317,19 +1497,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-black.jpg</t>
+          <t>switch_images\cherry-mx-blue.jpg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['#3a3a3f', '#9d9ba4', '#17171a']</t>
+          <t>['#9da3ac']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cherry MX Blue</t>
+          <t>Cherry MX Brown</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1339,17 +1529,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Clicky</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.2mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1364,19 +1554,29 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-blue.jpg</t>
+          <t>switch_images\cherry-mx-brown.jpg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['#9da3ac', '#9da3ac', '#1f91c3']</t>
+          <t>['#9ea4b0', '#664b44']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cherry MX Brown</t>
+          <t>Cherry MX Clear</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1391,7 +1591,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>65g</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1411,19 +1611,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-brown.jpg</t>
+          <t>switch_images\cherry-mx-clear.jpg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['#9ea4b0', '#9ea4b0', '#664b44']</t>
+          <t>['#9c9ca6', '#ebeaf0']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cherry MX Clear</t>
+          <t>Cherry MX Speed Silver</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1433,22 +1643,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>65g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.2mm</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.4mm</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1458,19 +1668,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-clear.jpg</t>
+          <t>switch_images\cherry-mx-speed-silver.jpg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['#9c9ca6', '#9c9ca6', '#ebeaf0']</t>
+          <t>['#808080', '#848484']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cherry MX Speed Silver</t>
+          <t>Cherry MX Ergo Clear</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1480,44 +1700,54 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.2mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.4mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Plate/PCB</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-speed-silver.jpg</t>
+          <t>switch_images\cherry-mx-ergo-clear.jpg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['#808080', '#808080', '#848484']</t>
+          <t>['#4d4d4d', '#c1c1c1']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cherry MX Ergo Clear</t>
+          <t>Cherry MX Green</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1527,17 +1757,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Clicky</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>80g</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>2.2mm</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1547,24 +1777,34 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate/PCB</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-ergo-clear.jpg</t>
+          <t>switch_images\cherry-mx-green.jpg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['#4d4d4d', '#4b4b4b', '#c1c1c1']</t>
+          <t>['#9c9ca6', '#7db682']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cherry MX Green</t>
+          <t>Cherry MX Grey</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1574,7 +1814,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clicky</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1584,7 +1824,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.2mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1599,19 +1839,29 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-green.jpg</t>
+          <t>switch_images\cherry-mx-grey.jpg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['#9c9ca6', '#9c9ca6', '#7db682']</t>
+          <t>['#9da4ae', '#a6a8ad']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cherry MX Grey</t>
+          <t>Cherry MX Red</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1621,12 +1871,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>80g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1646,24 +1896,34 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-grey.jpg</t>
+          <t>switch_images\cherry-mx-red.jpg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['#9da4ae', '#9da4ae', '#a6a8ad']</t>
+          <t>['#9c9ca7', '#c35b55']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cherry MX Red</t>
+          <t>Durock EV-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Durock</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1673,7 +1933,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>63.5g</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1683,29 +1943,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.4mm</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Plate/PCB</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>switch_images\cherry-mx-red.jpg</t>
+          <t>switch_images\durock-ev-01.jpg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['#9c9ca7', '#9c9ca7', '#c35b55']</t>
+          <t>['#3b2755', '#5bb54f']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Durock EV-01</t>
+          <t>Durock Daybreak</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1715,12 +1985,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Silent Linear</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>63.5g</t>
+          <t>67g</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1740,19 +2010,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>switch_images\durock-ev-01.jpg</t>
+          <t>switch_images\durock-daybreak.jpg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['#3b2755', '#111112', '#5bb54f']</t>
+          <t>['#56544e', '#0a1257']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Durock Daybreak</t>
+          <t>Durock Dolphin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1767,7 +2047,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>67g</t>
+          <t>62g</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1787,19 +2067,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>switch_images\durock-daybreak.jpg</t>
+          <t>switch_images\durock-dolphin.jpg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>['#56544e', '#252426', '#0a1257']</t>
+          <t>['#e2e4f0', '#031b7b']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Durock Dolphin</t>
+          <t>Durock Koala 62g</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1809,7 +2099,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Silent Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1824,7 +2114,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.4mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1834,19 +2124,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>switch_images\durock-dolphin.jpg</t>
+          <t>switch_images\durock-koala.jpg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['#e2e4f0', '#d9deea', '#031b7b']</t>
+          <t>['#e9e0d4']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Durock Koala 62g</t>
+          <t>Durock Mamba</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1856,12 +2156,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>62g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1871,7 +2171,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1881,19 +2181,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>switch_images\durock-koala.jpg</t>
+          <t>switch_images\durock-mamba.jpg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['#e9e0d4', '#e9e0d4', '#302e2d']</t>
+          <t>['#310f3c', '#ecb628', '#010507']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Durock Mamba</t>
+          <t>Durock POM Piano</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1908,7 +2218,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>63.5g</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1918,7 +2228,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>3.7mm</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1928,19 +2238,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>switch_images\durock-mamba.jpg</t>
+          <t>switch_images\durock-pom-piano.jpg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['#310f3c', '#ecb628', '#010507']</t>
+          <t>['#1e1e1e', '#f2f2f2']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Durock POM Piano</t>
+          <t>Durock POM T1 Sunflower</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1950,7 +2270,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1975,19 +2295,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>switch_images\durock-pom-piano.jpg</t>
+          <t>switch_images\durock-pom-t1-sunflower.jpg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['#1e1e1e', '#1e1e1e', '#f2f2f2']</t>
+          <t>['#a2a3a7', '#f9e22a']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Durock POM T1 Sunflower</t>
+          <t>Durock Silent T1 Shrimp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1997,12 +2327,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Silent Tactile</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>63.5g</t>
+          <t>67g</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2012,7 +2342,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.7mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2022,19 +2352,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>switch_images\durock-pom-t1-sunflower.jpg</t>
+          <t>switch_images\durock-silent-t1-shrimp.jpg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['#a2a3a7', '#a2a3a7', '#f9e22a']</t>
+          <t>['#44a08e', '#ebf3f2']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Durock Silent T1 Shrimp</t>
+          <t>Durock Splash Brothers</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2044,22 +2384,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Silent Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>67g</t>
+          <t>48g</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.0mm</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2069,24 +2409,34 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>switch_images\durock-silent-t1-shrimp.jpg</t>
+          <t>switch_images\durock-splash-brothers.jpg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['#44a08e', '#57b19e', '#ebf3f2']</t>
+          <t>['#2c3f94']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Durock Splash Brothers</t>
+          <t>Epomaker Bluebird</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Durock</t>
+          <t>Epomaker</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2096,17 +2446,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>48g</t>
+          <t>47g</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.0mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2116,19 +2466,29 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>switch_images\durock-splash-brothers.jpg</t>
+          <t>switch_images\epomaker-bluebird.jpg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['#2c3f94', '#bcb7b9', '#f8c053']</t>
+          <t>['#45a8e9', '#92eeee', '#2c75ba']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epomaker Bluebird</t>
+          <t>Epomaker Budgerigar</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2138,7 +2498,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2163,19 +2523,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>switch_images\epomaker-bluebird.jpg</t>
+          <t>switch_images\epomaker-budgerigar.jpg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['#45a8e9', '#92eeee', '#2c75ba']</t>
+          <t>['#d6bd9d', '#e7e2d3', '#a6d8ef']</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epomaker Budgerigar</t>
+          <t>Epomaker Flamingo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2185,7 +2555,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2210,19 +2580,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>switch_images\epomaker-budgerigar.jpg</t>
+          <t>switch_images\epomaker-flamingo.jpg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['#d6bd9d', '#e7e2d3', '#a6d8ef']</t>
+          <t>['#7a5980', '#d17686', '#f7a6aa']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epomaker Flamingo</t>
+          <t>Epomaker Sea Salt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2237,7 +2617,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>47g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2247,7 +2627,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2257,24 +2637,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>switch_images\epomaker-flamingo.jpg</t>
+          <t>switch_images\epomaker-sea-salt.jpg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['#7a5980', '#d17686', '#f7a6aa']</t>
+          <t>['#8abfcc', '#b3c0cb', '#ebda94']</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epomaker Sea Salt</t>
+          <t>Everglide Amber Orange</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Epomaker</t>
+          <t>Everglide</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2284,7 +2674,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>58g</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2304,19 +2694,29 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>switch_images\epomaker-sea-salt.jpg</t>
+          <t>switch_images\everglide-amber-orange.jpg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['#8abfcc', '#b3c0cb', '#ebda94']</t>
+          <t>['#dddbd9', '#e9836d']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Everglide Amber Orange</t>
+          <t>Everglide Aqua King 55g</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2331,7 +2731,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>58g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2351,19 +2751,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>switch_images\everglide-amber-orange.jpg</t>
+          <t>switch_images\everglide-aqua-king.jpg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['#dddbd9', '#dbd9d8', '#e9836d']</t>
+          <t>['#e7dfdf']</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Everglide Aqua King 55g</t>
+          <t>Everglide Bamboo Green</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2373,12 +2783,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>62g</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2398,19 +2808,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>switch_images\everglide-aqua-king.jpg</t>
+          <t>switch_images\everglide-bamboo-green.jpg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['#e7dfdf', '#e6dfdf', '#ded6cf']</t>
+          <t>['#d7d2cd', '#7ebbac']</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Everglide Bamboo Green</t>
+          <t>Everglide Coral Red</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2420,12 +2840,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>62g</t>
+          <t>67g</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2445,19 +2865,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>switch_images\everglide-bamboo-green.jpg</t>
+          <t>switch_images\everglide-coral-red.jpg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['#d7d2cd', '#97806f', '#7ebbac']</t>
+          <t>['#dedbd9', '#ac453e']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Everglide Coral Red</t>
+          <t>Everglide Crystal Purple</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2467,12 +2897,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>67g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2492,19 +2922,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>switch_images\everglide-coral-red.jpg</t>
+          <t>switch_images\everglide-crystal-purple.jpg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['#dedbd9', '#ccc7c4', '#ac453e']</t>
+          <t>['#9b69ae', '#371151']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Everglide Crystal Purple</t>
+          <t>Everglide Dark Jade</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2519,7 +2959,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2539,19 +2979,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>switch_images\everglide-crystal-purple.jpg</t>
+          <t>switch_images\everglide-dark-jade.jpg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['#9b69ae', '#ac93b8', '#371151']</t>
+          <t>['#e3e2e0', '#313131']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Everglide Dark Jade</t>
+          <t>Everglide Jade Green</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2566,7 +3016,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>58g</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2586,19 +3036,29 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>switch_images\everglide-dark-jade.jpg</t>
+          <t>switch_images\everglide-jade-green.jpg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['#e3e2e0', '#e3e2e0', '#313131']</t>
+          <t>['#a1aba1', '#28c570']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Everglide Jade Green</t>
+          <t>Everglide Oreo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2613,7 +3073,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>58g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2633,19 +3093,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>switch_images\everglide-jade-green.jpg</t>
+          <t>switch_images\everglide-oreo.jpg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['#a1aba1', '#d3d4d1', '#28c570']</t>
+          <t>['#98918d', '#b2adaa']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Everglide Oreo</t>
+          <t>Everglide Sakura Pink</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2655,12 +3125,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2680,19 +3150,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>switch_images\everglide-oreo.jpg</t>
+          <t>switch_images\everglide-sakura-pink.jpg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['#98918d', '#9a948e', '#b2adaa']</t>
+          <t>['#d9d4d3', '#b7596d']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Everglide Sakura Pink</t>
+          <t>Everglide Tourmaline Blue</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2707,7 +3187,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2727,19 +3207,29 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>switch_images\everglide-sakura-pink.jpg</t>
+          <t>switch_images\everglide-tourmaline-blue.jpg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['#d9d4d3', '#d9d4d3', '#b7596d']</t>
+          <t>['#dad8d9', '#2e878d']</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Everglide Tourmaline Blue</t>
+          <t>Everglide Tourmaline Blue V2.5 50g</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2774,118 +3264,148 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>switch_images\everglide-tourmaline-blue.jpg</t>
+          <t>switch_images\everglide-tourmaline-blue-v2-5.jpg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['#dad8d9', '#dad8d9', '#2e878d']</t>
+          <t>['#96d2ce', '#d0d1d5']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Everglide Tourmaline Blue V2.5 50g</t>
+          <t>HyperX Aqua</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Everglide</t>
+          <t>HyperX</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.8mm</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>switch_images\everglide-tourmaline-blue-v2-5.jpg</t>
+          <t>switch_images\hyperx-aqua.jpg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['#96d2ce', '#92dad5', '#d0d1d5']</t>
+          <t>['#22a59f', '#26aaa6']</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Geonworks Raptor MX Extreme</t>
+          <t>HyperX Blue</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Geonworks</t>
+          <t>HyperX</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Clicky</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.9mm</t>
+          <t>1.8mm</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3.1mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>switch_images\geonworks-raptor-mx-extreme.jpg</t>
+          <t>switch_images\hyperx-blue.jpg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['#0e0d12', '#c0452d', '#18151a']</t>
+          <t>['#0751ca', '#5f78da', '#0942b5']</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Glorious Lynx</t>
+          <t>HyperX Red</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Glorious</t>
+          <t>HyperX</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,49 +3415,59 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.8mm</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>switch_images\glorious-lynx.jpg</t>
+          <t>switch_images\hyperx-red.jpg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['#77cac4', '#77cac4', '#cbcbcc']</t>
+          <t>['#981c23', '#a75f60', '#911519']</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Glorious Panda</t>
+          <t>Keyfirst Bling Milk Blue</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Glorious</t>
+          <t>Keyfirst</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2952,44 +3482,54 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>switch_images\glorious-panda.jpg</t>
+          <t>switch_images\keyfirst-bling-blue.jpg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['#eef0eb', '#e7e9e8', '#faa74b']</t>
+          <t>['#d0d1cb', '#b8e8fa']</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gopolar Azure Dragon</t>
+          <t>Keyfirst Bling Milk Green</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gopolar</t>
+          <t>Keyfirst</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>63g</t>
+          <t>80g</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2999,7 +3539,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3009,24 +3549,34 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>switch_images\gopolar-azure-dragon.jpg</t>
+          <t>switch_images\keyfirst-bling-green.jpg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['#4c386f', '#3e5f84', '#759b95']</t>
+          <t>['#dddddd', '#99d9cc']</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gopolar Vermilion Bird</t>
+          <t>Keyfirst Bling Milk Pink</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gopolar</t>
+          <t>Keyfirst</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3036,7 +3586,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3046,7 +3596,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3056,39 +3606,49 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>switch_images\gopolar-vermilion-bird.jpg</t>
+          <t>switch_images\keyfirst-bling-pink.jpg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['#8e0e03', '#8e0e03', '#b38747']</t>
+          <t>['#dbcac6']</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HyperX Aqua</t>
+          <t>Keyfirst Bling Milk Purple</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HyperX</t>
+          <t>Keyfirst</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>62g</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.8mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3098,76 +3658,96 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>switch_images\hyperx-aqua.jpg</t>
+          <t>switch_images\keyfirst-bling-purple.jpg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['#22a59f', '#6ab0ae', '#26aaa6']</t>
+          <t>['#e7d7da', '#b36bcc']</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HyperX Blue</t>
+          <t>Keyfirst Queen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HyperX</t>
+          <t>Keyfirst</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Clicky</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.8mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>switch_images\hyperx-blue.jpg</t>
+          <t>switch_images\keyfirst-queen.jpg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['#0751ca', '#5f78da', '#0942b5']</t>
+          <t>['#fb7254', '#1b1c20']</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HyperX Red</t>
+          <t>KTT Grapefruit</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HyperX</t>
+          <t>KTT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3182,12 +3762,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.8mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3197,24 +3777,34 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>switch_images\hyperx-red.jpg</t>
+          <t>switch_images\ktt-grapefruit.jpg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['#981c23', '#a75f60', '#911519']</t>
+          <t>['#91262e']</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Keyfirst Bling Milk Blue</t>
+          <t>KTT Kang White</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Keyfirst</t>
+          <t>KTT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3224,7 +3814,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>67g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3234,81 +3824,101 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>switch_images\keyfirst-bling-blue.jpg</t>
+          <t>switch_images\ktt-kang-white.jpg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['#d0d1cb', '#90b9bf', '#b8e8fa']</t>
+          <t>['#e4e3df', '#e7e5e6']</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Keyfirst Bling Milk Green</t>
+          <t>KTT Matcha</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Keyfirst</t>
+          <t>KTT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>80g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>switch_images\keyfirst-bling-green.jpg</t>
+          <t>switch_images\ktt-matcha.jpg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['#dddddd', '#dddddd', '#99d9cc']</t>
+          <t>['#b7cb35']</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Keyfirst Bling Milk Pink</t>
+          <t>KTT Mint</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Keyfirst</t>
+          <t>KTT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3328,34 +3938,44 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>switch_images\keyfirst-bling-pink.jpg</t>
+          <t>switch_images\ktt-mint.jpg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['#dbcac6', '#dac2ba', '#e6999b']</t>
+          <t>['#b7cb35', '#cfccd0']</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Keyfirst Bling Milk Purple</t>
+          <t>KTT Peach</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Keyfirst</t>
+          <t>KTT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3365,7 +3985,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>62g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3375,34 +3995,44 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>switch_images\keyfirst-bling-purple.jpg</t>
+          <t>switch_images\ktt-peach.jpg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['#e7d7da', '#e2c6d7', '#b36bcc']</t>
+          <t>['#b77c85']</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Keyfirst Queen</t>
+          <t>KTT Rose</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Keyfirst</t>
+          <t>KTT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3412,7 +4042,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>43g</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3427,24 +4057,34 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>switch_images\keyfirst-queen.jpg</t>
+          <t>switch_images\ktt-rose.jpg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['#fb7254', '#fa4830', '#1b1c20']</t>
+          <t>['#eca7b0', '#f8d0e2']</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KTT Grapefruit</t>
+          <t>KTT Sea Salt Lemon</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3479,19 +4119,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>switch_images\ktt-grapefruit.jpg</t>
+          <t>switch_images\ktt-sea-salt-lemon.jpg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['#91262e', '#fbfbf9', '#dfe0db']</t>
+          <t>['#1a6f9c', '#f4e603']</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KTT Kang White</t>
+          <t>KTT Strawberry</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3506,7 +4156,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>62g</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3526,19 +4176,29 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>switch_images\ktt-kang-white.jpg</t>
+          <t>switch_images\ktt-strawberry.jpg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['#e4e3df', '#d8d7d3', '#e7e5e6']</t>
+          <t>['#eca0a3', '#c4515d']</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KTT Matcha</t>
+          <t>KTT Wine Red</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3548,17 +4208,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>44g</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.9mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3573,34 +4233,44 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>switch_images\ktt-matcha.jpg</t>
+          <t>switch_images\ktt-wine-red.jpg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['#b7cb35', '#b7cb35', '#b7cb35']</t>
+          <t>['#e3e1d7', '#b12c5d']</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>KTT Mint</t>
+          <t>LCET Blue Pink</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KTT</t>
+          <t>LCET</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>58g</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3615,39 +4285,49 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>switch_images\ktt-mint.jpg</t>
+          <t>switch_images\lcet-blue-pink.jpg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['#b7cb35', '#4f9ca1', '#cfccd0']</t>
+          <t>['#caa9b1', '#53b3cf', '#b5b0b7']</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KTT Peach</t>
+          <t>LCET Desert</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KTT</t>
+          <t>LCET</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>58g</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3662,29 +4342,39 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>switch_images\ktt-peach.jpg</t>
+          <t>switch_images\lcet-desert.jpg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['#b77c85', '#c38c98', '#e6dc61']</t>
+          <t>['#d88e17', '#f5dd44']</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KTT Rose</t>
+          <t>LCET Grace</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KTT</t>
+          <t>LCET</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3694,7 +4384,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>43g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3709,29 +4399,39 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>switch_images\ktt-rose.jpg</t>
+          <t>switch_images\lcet-grace.jpg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['#eca7b0', '#eca7b0', '#f8d0e2']</t>
+          <t>['#838286', '#68b6e4', '#a9a6aa']</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KTT Sea Salt Lemon</t>
+          <t>LCET Ice World</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KTT</t>
+          <t>LCET</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3741,7 +4441,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3756,39 +4456,49 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>switch_images\ktt-sea-salt-lemon.jpg</t>
+          <t>switch_images\lcet-ice-world.jpg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['#1a6f9c', '#1a6f9c', '#f4e603']</t>
+          <t>['#d3cdcf']</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>KTT Strawberry</t>
+          <t>LCET Joker</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KTT</t>
+          <t>LCET</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>62g</t>
+          <t>58g</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3803,39 +4513,49 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>switch_images\ktt-strawberry.jpg</t>
+          <t>switch_images\lcet-joker.jpg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['#eca0a3', '#fbebe8', '#c4515d']</t>
+          <t>['#847184']</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KTT Wine Red</t>
+          <t>LCET Oasis</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KTT</t>
+          <t>LCET</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>44g</t>
+          <t>58g</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3850,24 +4570,34 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>switch_images\ktt-wine-red.jpg</t>
+          <t>switch_images\lcet-oasis.jpg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['#e3e1d7', '#e3e1d7', '#b12c5d']</t>
+          <t>['#b6a08c']</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LCET Blue Pink</t>
+          <t>LCET Pink Queen</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3902,19 +4632,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>switch_images\lcet-blue-pink.jpg</t>
+          <t>switch_images\lcet-pink-queen.jpg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['#caa9b1', '#53b3cf', '#b5b0b7']</t>
+          <t>['#d5afb4', '#b54536']</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LCET Desert</t>
+          <t>LCET Pink Sweet Heart</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3949,19 +4689,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>switch_images\lcet-desert.jpg</t>
+          <t>switch_images\lcet-pink-sweet-heart.jpg</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['#d88e17', '#d88e17', '#f5dd44']</t>
+          <t>['#b7b2af']</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LCET Grace</t>
+          <t>LCET Sprout</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3996,24 +4746,34 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>switch_images\lcet-grace.jpg</t>
+          <t>switch_images\lcet-sprout.jpg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['#838286', '#68b6e4', '#a9a6aa']</t>
+          <t>['#b8b1ba', '#e0ca0a', '#298d0a']</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LCET Ice World</t>
+          <t>Razer Analog Optical</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LCET</t>
+          <t>Razer</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4023,59 +4783,69 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.5mm</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.6mm</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>switch_images\lcet-ice-world.jpg</t>
+          <t>switch_images\razer-analog-optical.jpg</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['#d3cdcf', '#d3cdcf', '#d2cecf']</t>
+          <t>['#0f0f0f']</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LCET Joker</t>
+          <t>Razer Green</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LCET</t>
+          <t>Razer</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Clicky</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>58g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4085,29 +4855,39 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>switch_images\lcet-joker.jpg</t>
+          <t>switch_images\razer-green.jpg</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['#847184', '#847184', '#31921f']</t>
+          <t>['#0b0b0b', '#10600b']</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LCET Oasis</t>
+          <t>Razer Green</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LCET</t>
+          <t>Razer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4117,12 +4897,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>58g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4132,123 +4912,153 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>switch_images\lcet-oasis.jpg</t>
+          <t>switch_images\razer-orange.jpg</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['#b6a08c', '#b8bf8f', '#cfb10c']</t>
+          <t>['#0c0c0c', '#d46a03']</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LCET Pink Queen</t>
+          <t>Razer Yellow</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LCET</t>
+          <t>Razer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>58g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.2mm</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>switch_images\lcet-pink-queen.jpg</t>
+          <t>switch_images\razer-yellow.jpg</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['#d5afb4', '#c75c56', '#b54536']</t>
+          <t>['#010002', '#cca901']</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LCET Pink Sweet Heart</t>
+          <t>Razer Optical Clicky</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LCET</t>
+          <t>Razer</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Clicky</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>58g</t>
+          <t>45g</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.5mm</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>switch_images\lcet-pink-sweet-heart.jpg</t>
+          <t>switch_images\razer-clicky-optical.jpg</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['#b7b2af', '#bab5b3', '#c52f10']</t>
+          <t>['#22242d', '#9646e1']</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LCET Sprout</t>
+          <t>Razer Optical Linear</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LCET</t>
+          <t>Razer</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4258,64 +5068,74 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.5mm</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>Plate</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>switch_images\lcet-sprout.jpg</t>
+          <t>switch_images\razer-linear-optical.jpg</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['#b8b1ba', '#e0ca0a', '#298d0a']</t>
+          <t>['#272830', '#ae3840']</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Razer Analog Optical</t>
+          <t>Redragon A113 Bullet-B Parrot</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Razer</t>
+          <t>Redragon</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Clicky</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.5mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.6mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4325,29 +5145,39 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>switch_images\razer-analog-optical.jpg</t>
+          <t>switch_images\redragon-a113-bullet-b.jpg</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['#0f0f0f', '#0f0f0f', '#0f0f0f']</t>
+          <t>['#4c67ac', '#f6f5e4']</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Razer Green</t>
+          <t>Redragon A113 Bullet-F Wukong</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Razer</t>
+          <t>Redragon</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Clicky</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4357,12 +5187,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.9mm</t>
+          <t>1.8mm</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.3mm</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4372,44 +5202,54 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>switch_images\razer-green.jpg</t>
+          <t>switch_images\redragon-a113-bullet-f-wukong.jpg</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['#0b0b0b', '#131313', '#10600b']</t>
+          <t>['#c12935', '#dec6c1', '#d4a25e']</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Razer Green</t>
+          <t>Redragon A113 Bullet-QL Peach</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Razer</t>
+          <t>Redragon</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tactile</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.9mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.3mm</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4419,44 +5259,54 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>switch_images\razer-orange.jpg</t>
+          <t>switch_images\redragon-a113-bullet-ql-peach.jpg</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['#0c0c0c', '#0c0c0c', '#d46a03']</t>
+          <t>['#dba49e', '#f8a65a']</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Razer Yellow</t>
+          <t>Redragon A113 Bullet-QT Lime</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Razer</t>
+          <t>Redragon</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>35g</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.2mm</t>
+          <t>1.8mm</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>3.3mm</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4466,44 +5316,54 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>switch_images\razer-yellow.jpg</t>
+          <t>switch_images\redragon-a113-bullet-qt-lime.jpg</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['#010002', '#010002', '#cca901']</t>
+          <t>['#6eb783', '#dbe456']</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Razer Optical Clicky</t>
+          <t>Redragon A113 Bullet-R Neon</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Razer</t>
+          <t>Redragon</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Clicky</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>45g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.5mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4513,24 +5373,34 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>switch_images\razer-clicky-optical.jpg</t>
+          <t>switch_images\redragon-a113-bullet-r.jpg</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['#22242d', '#22242d', '#9646e1']</t>
+          <t>['#9c4d85', '#69ddf0', '#ec6652']</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Razer Optical Linear</t>
+          <t>Redragon A113 Bullet-S Silver</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Razer</t>
+          <t>Redragon</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4540,17 +5410,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>35g</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.5mm</t>
+          <t>1.3mm</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>4.0mm</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4560,71 +5430,91 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>switch_images\razer-linear-optical.jpg</t>
+          <t>switch_images\redragon-a113-bullet-s-silver.jpg</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['#272830', '#272830', '#ae3840']</t>
+          <t>['#d0b04d', '#c3b4a1', '#606064']</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Redragon A113 Bullet-B Parrot</t>
+          <t>Tecsee Blue Sky Linear</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Redragon</t>
+          <t>Tecsee</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Clicky</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>48g</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.8mm</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.4mm</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>switch_images\redragon-a113-bullet-b.jpg</t>
+          <t>switch_images\tecsee-blue-sky.jpg</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['#4c67ac', '#deaf03', '#f6f5e4']</t>
+          <t>['#3ac2e1', '#d6d6d6']</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Redragon A113 Bullet-F Wukong</t>
+          <t>Tecsee Blue Sky Tactile</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Redragon</t>
+          <t>Tecsee</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4634,7 +5524,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>48g</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4644,34 +5534,44 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3.3mm</t>
+          <t>3.4mm</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>switch_images\redragon-a113-bullet-f-wukong.jpg</t>
+          <t>switch_images\tecsee-blue-sky.jpg</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['#c12935', '#dec6c1', '#d4a25e']</t>
+          <t>['#40c9de', '#aea9ab']</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Redragon A113 Bullet-QL Peach</t>
+          <t>Tecsee Carrot</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Redragon</t>
+          <t>Tecsee</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4681,7 +5581,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4691,34 +5591,44 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.3mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>switch_images\redragon-a113-bullet-ql-peach.jpg</t>
+          <t>switch_images\tecsee-carrot.jpg</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['#dba49e', '#dba49e', '#f8a65a']</t>
+          <t>['#e46838', '#3ae2e4']</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Redragon A113 Bullet-QT Lime</t>
+          <t>Tecsee Coral</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Redragon</t>
+          <t>Tecsee</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4728,7 +5638,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>35g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4738,34 +5648,44 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3.3mm</t>
+          <t>3.0mm</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>switch_images\redragon-a113-bullet-qt-lime.jpg</t>
+          <t>switch_images\tecsee-coral.jpg</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['#6eb783', '#6eb783', '#dbe456']</t>
+          <t>['#e2b69b', '#f95001']</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Redragon A113 Bullet-R Neon</t>
+          <t>Tecsee Ice Candy</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Redragon</t>
+          <t>Tecsee</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4775,44 +5695,54 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>2.1mm</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>switch_images\redragon-a113-bullet-r.jpg</t>
+          <t>switch_images\tecsee-ice-candy.jpg</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['#9c4d85', '#69ddf0', '#ec6652']</t>
+          <t>['#e9e5dd']</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>RemoveSecondThird</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Redragon A113 Bullet-S Silver</t>
+          <t>Tecsee Ice Grape</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Redragon</t>
+          <t>Tecsee</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4822,39 +5752,49 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>35g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.3mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4.0mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Plate</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>switch_images\redragon-a113-bullet-s-silver.jpg</t>
+          <t>switch_images\tecsee-ice-grape.jpg</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['#d0b04d', '#c3b4a1', '#606064']</t>
+          <t>['#ce8ce4', '#f8d10d']</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tecsee Blue Sky Linear</t>
+          <t>Tecsee Jadeite</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4869,17 +5809,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>48g</t>
+          <t>55g</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.8mm</t>
+          <t>2.1mm</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.4mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4889,19 +5829,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-blue-sky.jpg</t>
+          <t>switch_images\tecsee-jadeite.jpg</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['#3ac2e1', '#60bcd4', '#d6d6d6']</t>
+          <t>['#86f3e7', '#f3f4f6']</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Tecsee Blue Sky Tactile</t>
+          <t>Tecsee Mango Ice</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4916,17 +5866,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>48g</t>
+          <t>52g</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.8mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.4mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4936,19 +5886,29 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-blue-sky.jpg</t>
+          <t>switch_images\tecsee-mango-ice.jpg</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['#40c9de', '#40c9de', '#aea9ab']</t>
+          <t>['#ebeae6', '#fcca0c']</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Tecsee Carrot</t>
+          <t>Tecsee Oreo</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4968,12 +5928,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2.0mm</t>
+          <t>1.9mm</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3.5mm</t>
+          <t>3.8mm</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4983,19 +5943,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-carrot.jpg</t>
+          <t>switch_images\tecsee-oreo.jpg</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['#e46838', '#e46838', '#3ae2e4']</t>
+          <t>['#232323', '#111112']</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tecsee Coral</t>
+          <t>Tecsee Purple Panda</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5015,7 +5985,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.8mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5030,19 +6000,29 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-coral.jpg</t>
+          <t>switch_images\tecsee-purple-panda.jpg</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['#e2b69b', '#e2b69b', '#f95001']</t>
+          <t>['#795ab7', '#efeff7']</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tecsee Ice Candy</t>
+          <t>Tecsee Ruby</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5057,17 +6037,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>52g</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2.1mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>3.5mm</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5077,19 +6057,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-ice-candy.jpg</t>
+          <t>switch_images\tecsee-ruby.jpg</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['#e9e5dd', '#e9e5dd', '#e9e5dd']</t>
+          <t>['#d85766', '#f3d00e']</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Tecsee Ice Grape</t>
+          <t>Tecsee Safety</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5104,17 +6094,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>52g</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.9mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>3.7mm</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5124,19 +6114,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-ice-grape.jpg</t>
+          <t>switch_images\tecsee-safety.jpg</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['#ce8ce4', '#ce8ce4', '#f8d10d']</t>
+          <t>['#9d8786', '#ad9148']</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>NoChange</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Tecsee Jadeite</t>
+          <t>Tecsee Sapphire</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5146,22 +6146,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Tactile</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>55g</t>
+          <t>52g</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2.1mm</t>
+          <t>2.0mm</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.8mm</t>
+          <t>3.0mm</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5171,294 +6171,22 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>switch_images\tecsee-jadeite.jpg</t>
+          <t>switch_images\tecsee-sapphire.jpg</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['#86f3e7', '#e2f5f3', '#f3f4f6']</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Tecsee Mango Ice</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Tecsee</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Tactile</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>52g</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>1.9mm</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>3.8mm</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>switch_images\tecsee-mango-ice.jpg</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>['#ebeae6', '#ebeae6', '#fcca0c']</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Tecsee Oreo</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Tecsee</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Linear</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>55g</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1.9mm</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>3.8mm</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>switch_images\tecsee-oreo.jpg</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>['#232323', '#dbdbd8', '#111112']</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Tecsee Purple Panda</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Tecsee</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Tactile</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>55g</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2.0mm</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>3.0mm</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>switch_images\tecsee-purple-panda.jpg</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>['#795ab7', '#795ab7', '#efeff7']</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Tecsee Ruby</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Tecsee</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Linear</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>52g</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>2.0mm</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>3.5mm</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>switch_images\tecsee-ruby.jpg</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>['#d85766', '#d85766', '#f3d00e']</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Tecsee Safety</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Tecsee</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Linear</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>52g</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2.0mm</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>3.7mm</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>switch_images\tecsee-safety.jpg</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>['#9d8786', '#f5591b', '#ad9148']</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Tecsee Sapphire</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Tecsee</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Tactile</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>52g</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2.0mm</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>3.0mm</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>switch_images\tecsee-sapphire.jpg</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>['#384188', '#1b215f', '#f1c416']</t>
+          <t>['#384188', '#f1c416']</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>RemoveSecond</t>
         </is>
       </c>
     </row>
